--- a/artfynd/A 23994-2022.xlsx
+++ b/artfynd/A 23994-2022.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65011366</v>
+        <v>65011367</v>
       </c>
       <c r="B3" t="n">
-        <v>78570</v>
+        <v>78527</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>229497</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>431108.297595304</v>
+        <v>430899.7582483087</v>
       </c>
       <c r="R3" t="n">
-        <v>7050707.757188959</v>
+        <v>7050903.864986234</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65011367</v>
+        <v>65011365</v>
       </c>
       <c r="B4" t="n">
-        <v>78527</v>
+        <v>78570</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229497</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>430899.7582483087</v>
+        <v>431021.4584440839</v>
       </c>
       <c r="R4" t="n">
-        <v>7050903.864986234</v>
+        <v>7050920.376071113</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>65011365</v>
+        <v>65011364</v>
       </c>
       <c r="B5" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>431021.4584440839</v>
+        <v>430989.0331701299</v>
       </c>
       <c r="R5" t="n">
-        <v>7050920.376071113</v>
+        <v>7050947.365669774</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2016-08-02</t>
+          <t>2016-07-22</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2016-08-02</t>
+          <t>2016-07-22</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65011364</v>
+        <v>101328774</v>
       </c>
       <c r="B6" t="n">
-        <v>78569</v>
+        <v>78527</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,41 +1156,44 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>N Glasbruksberget, Jmt</t>
+          <t>Getbovägen , Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>430989.0331701299</v>
+        <v>430901.891005214</v>
       </c>
       <c r="R6" t="n">
-        <v>7050947.365669774</v>
+        <v>7050878.869665774</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2016-07-22</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1224,7 +1227,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2016-07-22</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1238,32 +1241,29 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Sebastian Acker</t>
+          <t>Erik Söderhjelm</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Sebastian Acker</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erik Söderhjelm</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>101328774</v>
+        <v>65011366</v>
       </c>
       <c r="B7" t="n">
-        <v>78527</v>
+        <v>78570</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,44 +1272,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229497</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Getbovägen , Jmt</t>
+          <t>N Glasbruksberget, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>430901.891005214</v>
+        <v>431108.297595304</v>
       </c>
       <c r="R7" t="n">
-        <v>7050878.869665774</v>
+        <v>7050707.757188959</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1333,7 +1330,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2016-08-02</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1343,7 +1340,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2016-08-02</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1357,22 +1354,25 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erik Söderhjelm</t>
+          <t>Sebastian Acker</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Erik Söderhjelm</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Sebastian Acker</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 23994-2022.xlsx
+++ b/artfynd/A 23994-2022.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65011367</v>
+        <v>65011366</v>
       </c>
       <c r="B3" t="n">
-        <v>78527</v>
+        <v>78570</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>229497</v>
+        <v>2081</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>430899.7582483087</v>
+        <v>431108.297595304</v>
       </c>
       <c r="R3" t="n">
-        <v>7050903.864986234</v>
+        <v>7050707.757188959</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65011365</v>
+        <v>65011367</v>
       </c>
       <c r="B4" t="n">
-        <v>78570</v>
+        <v>78527</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>229497</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>431021.4584440839</v>
+        <v>430899.7582483087</v>
       </c>
       <c r="R4" t="n">
-        <v>7050920.376071113</v>
+        <v>7050903.864986234</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>65011364</v>
+        <v>65011365</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>430989.0331701299</v>
+        <v>431021.4584440839</v>
       </c>
       <c r="R5" t="n">
-        <v>7050947.365669774</v>
+        <v>7050920.376071113</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2016-07-22</t>
+          <t>2016-08-02</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2016-07-22</t>
+          <t>2016-08-02</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101328774</v>
+        <v>65011364</v>
       </c>
       <c r="B6" t="n">
-        <v>78527</v>
+        <v>78569</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,44 +1156,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Getbovägen , Jmt</t>
+          <t>N Glasbruksberget, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>430901.891005214</v>
+        <v>430989.0331701299</v>
       </c>
       <c r="R6" t="n">
-        <v>7050878.869665774</v>
+        <v>7050947.365669774</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1217,7 +1214,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2016-07-22</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1227,7 +1224,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2016-07-22</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1241,29 +1238,32 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Erik Söderhjelm</t>
+          <t>Sebastian Acker</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Erik Söderhjelm</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Sebastian Acker</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65011366</v>
+        <v>101328774</v>
       </c>
       <c r="B7" t="n">
-        <v>78570</v>
+        <v>78527</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,41 +1272,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>229497</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>N Glasbruksberget, Jmt</t>
+          <t>Getbovägen , Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>431108.297595304</v>
+        <v>430901.891005214</v>
       </c>
       <c r="R7" t="n">
-        <v>7050707.757188959</v>
+        <v>7050878.869665774</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1330,7 +1333,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2016-08-02</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1340,7 +1343,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2016-08-02</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1354,25 +1357,22 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Sebastian Acker</t>
+          <t>Erik Söderhjelm</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Sebastian Acker</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erik Söderhjelm</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
